--- a/src/resources/takimlar.xlsx
+++ b/src/resources/takimlar.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="50">
   <si>
     <t xml:space="preserve">Ülke </t>
   </si>
@@ -163,6 +163,12 @@
   </si>
   <si>
     <t>yeni Olusturuldu</t>
+  </si>
+  <si>
+    <t>Deneme</t>
+  </si>
+  <si>
+    <t>Girdi</t>
   </si>
 </sst>
 </file>
@@ -453,7 +459,7 @@
   <sheetPr>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E1000"/>
+  <dimension ref="A1:F1000"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -477,6 +483,9 @@
       </c>
       <c r="E1" t="s" s="0">
         <v>44</v>
+      </c>
+      <c r="F1" t="s" s="0">
+        <v>48</v>
       </c>
     </row>
     <row r="2">
